--- a/cucumber-for-appian/src/test/resources/testdata/07_SMB_End2End.xlsx
+++ b/cucumber-for-appian/src/test/resources/testdata/07_SMB_End2End.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\IdeaProjects\ORIXAutoExcel\cucumber-for-appian\src\test\resources\testdata\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="209">
   <si>
     <t>Make</t>
   </si>
@@ -644,12 +644,43 @@
   </si>
   <si>
     <t>05 Feb 2026 11:20 PM</t>
+  </si>
+  <si>
+    <t>APP-638</t>
+  </si>
+  <si>
+    <t>4263531-1-1
+4263531-1-1</t>
+  </si>
+  <si>
+    <t>07 Feb 2026 02:08 AM</t>
+  </si>
+  <si>
+    <t>APP-672</t>
+  </si>
+  <si>
+    <t>4263584-1-1
+4263584-1-1</t>
+  </si>
+  <si>
+    <t>11 Feb 2026 08:42 PM</t>
+  </si>
+  <si>
+    <t>APP-680</t>
+  </si>
+  <si>
+    <t>4263587-1-1
+4263587-1-1</t>
+  </si>
+  <si>
+    <t>11 Feb 2026 09:40 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1157,108 +1188,108 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="4.21875" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="9.77734375" customWidth="1"/>
-    <col min="15" max="15" width="7.5546875" customWidth="1"/>
-    <col min="16" max="16" width="14.88671875" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="9.109375" customWidth="1"/>
-    <col min="20" max="20" width="11" customWidth="1"/>
-    <col min="21" max="21" width="8.88671875" customWidth="1"/>
-    <col min="22" max="22" width="8.21875" customWidth="1"/>
-    <col min="23" max="30" width="6.5546875" customWidth="1"/>
-    <col min="32" max="32" width="8.5546875" customWidth="1"/>
-    <col min="33" max="34" width="8.44140625" customWidth="1"/>
-    <col min="35" max="35" width="9.88671875" customWidth="1"/>
-    <col min="36" max="36" width="9.6640625" customWidth="1"/>
-    <col min="38" max="38" width="6.33203125" customWidth="1"/>
-    <col min="39" max="39" width="14.5546875" customWidth="1"/>
-    <col min="40" max="40" width="6.88671875" customWidth="1"/>
-    <col min="41" max="41" width="5.77734375" customWidth="1"/>
-    <col min="42" max="42" width="10.88671875" customWidth="1"/>
-    <col min="43" max="43" width="9.88671875" customWidth="1"/>
-    <col min="44" max="44" width="4.21875" customWidth="1"/>
-    <col min="45" max="45" width="10.33203125" customWidth="1"/>
-    <col min="46" max="46" width="7.33203125" customWidth="1"/>
-    <col min="47" max="47" width="8.88671875" customWidth="1"/>
-    <col min="48" max="48" width="13.6640625" customWidth="1"/>
-    <col min="49" max="49" width="15.33203125" customWidth="1"/>
-    <col min="50" max="50" width="21.33203125" customWidth="1"/>
-    <col min="51" max="51" width="12.33203125" customWidth="1"/>
-    <col min="52" max="53" width="18.44140625" customWidth="1"/>
-    <col min="54" max="54" width="15.88671875" customWidth="1"/>
-    <col min="55" max="55" width="21.44140625" customWidth="1"/>
-    <col min="56" max="56" width="18.6640625" customWidth="1"/>
-    <col min="57" max="57" width="18.33203125" customWidth="1"/>
-    <col min="58" max="58" width="19.109375" customWidth="1"/>
-    <col min="59" max="59" width="7.21875" customWidth="1"/>
-    <col min="60" max="60" width="7.77734375" customWidth="1"/>
-    <col min="61" max="61" width="9.21875" customWidth="1"/>
-    <col min="62" max="62" width="10.109375" customWidth="1"/>
-    <col min="63" max="63" width="11.88671875" customWidth="1"/>
-    <col min="64" max="64" width="7.6640625" customWidth="1"/>
-    <col min="65" max="65" width="10.33203125" customWidth="1"/>
-    <col min="66" max="66" width="19.5546875" customWidth="1"/>
-    <col min="67" max="67" width="13" customWidth="1"/>
-    <col min="68" max="68" width="15.44140625" customWidth="1"/>
-    <col min="69" max="69" width="8.6640625" customWidth="1"/>
-    <col min="70" max="70" width="10.109375" customWidth="1"/>
-    <col min="71" max="71" width="9.21875" customWidth="1"/>
-    <col min="72" max="72" width="12.109375" customWidth="1"/>
-    <col min="73" max="73" width="7.21875" customWidth="1"/>
-    <col min="74" max="74" width="7.77734375" customWidth="1"/>
-    <col min="75" max="75" width="12.6640625" customWidth="1"/>
-    <col min="76" max="76" width="10.109375" customWidth="1"/>
-    <col min="77" max="77" width="11.88671875" customWidth="1"/>
-    <col min="78" max="78" width="7.6640625" customWidth="1"/>
-    <col min="79" max="79" width="10.33203125" customWidth="1"/>
-    <col min="80" max="80" width="18.88671875" customWidth="1"/>
-    <col min="81" max="81" width="13" customWidth="1"/>
-    <col min="82" max="82" width="15.5546875" customWidth="1"/>
-    <col min="83" max="83" width="8.6640625" customWidth="1"/>
-    <col min="84" max="84" width="11" customWidth="1"/>
-    <col min="85" max="85" width="9.21875" customWidth="1"/>
-    <col min="86" max="86" width="12.109375" customWidth="1"/>
-    <col min="87" max="87" width="13.5546875" customWidth="1"/>
-    <col min="88" max="88" width="10.109375" customWidth="1"/>
-    <col min="89" max="89" width="23.109375" customWidth="1"/>
-    <col min="90" max="90" width="9.6640625" customWidth="1"/>
-    <col min="91" max="91" width="12.33203125" customWidth="1"/>
-    <col min="92" max="92" width="10.33203125" customWidth="1"/>
-    <col min="93" max="93" width="11.109375" customWidth="1"/>
-    <col min="94" max="94" width="9.6640625" customWidth="1"/>
-    <col min="95" max="95" width="14.6640625" customWidth="1"/>
-    <col min="96" max="96" width="28.44140625" customWidth="1"/>
-    <col min="97" max="97" width="25.6640625" customWidth="1"/>
-    <col min="98" max="98" width="14.6640625" customWidth="1"/>
-    <col min="99" max="99" width="17.88671875" customWidth="1"/>
-    <col min="100" max="109" width="14.6640625" customWidth="1"/>
-    <col min="110" max="110" width="11.44140625" customWidth="1"/>
-    <col min="111" max="112" width="8.6640625" customWidth="1"/>
-    <col min="113" max="113" width="9.33203125" customWidth="1"/>
-    <col min="114" max="114" width="14.6640625" customWidth="1"/>
-    <col min="115" max="115" width="11.21875" customWidth="1"/>
-    <col min="116" max="116" width="10.109375" customWidth="1"/>
-    <col min="117" max="118" width="10.21875" customWidth="1"/>
-    <col min="119" max="119" width="9.6640625" customWidth="1"/>
-    <col min="120" max="120" width="11.21875" customWidth="1"/>
-    <col min="121" max="121" width="11.33203125" customWidth="1"/>
-    <col min="122" max="122" width="23.33203125" customWidth="1"/>
-    <col min="123" max="123" width="14.6640625" customWidth="1"/>
-    <col min="124" max="124" width="27" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="9.109375"/>
+    <col min="2" max="2" customWidth="true" width="16.33203125"/>
+    <col min="3" max="3" customWidth="true" width="13.21875"/>
+    <col min="4" max="4" customWidth="true" width="4.21875"/>
+    <col min="5" max="5" customWidth="true" width="7.0"/>
+    <col min="6" max="6" customWidth="true" width="16.33203125"/>
+    <col min="7" max="7" customWidth="true" width="12.77734375"/>
+    <col min="8" max="8" customWidth="true" width="9.77734375"/>
+    <col min="9" max="9" customWidth="true" width="8.44140625"/>
+    <col min="10" max="10" customWidth="true" width="13.44140625"/>
+    <col min="11" max="11" customWidth="true" width="22.33203125"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875"/>
+    <col min="13" max="13" customWidth="true" width="7.0"/>
+    <col min="14" max="14" customWidth="true" width="9.77734375"/>
+    <col min="15" max="15" customWidth="true" width="7.5546875"/>
+    <col min="16" max="16" customWidth="true" width="14.88671875"/>
+    <col min="17" max="17" customWidth="true" width="8.33203125"/>
+    <col min="18" max="18" customWidth="true" width="11.6640625"/>
+    <col min="19" max="19" customWidth="true" width="9.109375"/>
+    <col min="20" max="20" customWidth="true" width="11.0"/>
+    <col min="21" max="21" customWidth="true" width="8.88671875"/>
+    <col min="22" max="22" customWidth="true" width="8.21875"/>
+    <col min="23" max="30" customWidth="true" width="6.5546875"/>
+    <col min="32" max="32" customWidth="true" width="8.5546875"/>
+    <col min="33" max="34" customWidth="true" width="8.44140625"/>
+    <col min="35" max="35" customWidth="true" width="9.88671875"/>
+    <col min="36" max="36" customWidth="true" width="9.6640625"/>
+    <col min="38" max="38" customWidth="true" width="6.33203125"/>
+    <col min="39" max="39" customWidth="true" width="14.5546875"/>
+    <col min="40" max="40" customWidth="true" width="6.88671875"/>
+    <col min="41" max="41" customWidth="true" width="5.77734375"/>
+    <col min="42" max="42" customWidth="true" width="10.88671875"/>
+    <col min="43" max="43" customWidth="true" width="9.88671875"/>
+    <col min="44" max="44" customWidth="true" width="4.21875"/>
+    <col min="45" max="45" customWidth="true" width="10.33203125"/>
+    <col min="46" max="46" customWidth="true" width="7.33203125"/>
+    <col min="47" max="47" customWidth="true" width="8.88671875"/>
+    <col min="48" max="48" customWidth="true" width="13.6640625"/>
+    <col min="49" max="49" customWidth="true" width="15.33203125"/>
+    <col min="50" max="50" customWidth="true" width="21.33203125"/>
+    <col min="51" max="51" customWidth="true" width="12.33203125"/>
+    <col min="52" max="53" customWidth="true" width="18.44140625"/>
+    <col min="54" max="54" customWidth="true" width="15.88671875"/>
+    <col min="55" max="55" customWidth="true" width="21.44140625"/>
+    <col min="56" max="56" customWidth="true" width="18.6640625"/>
+    <col min="57" max="57" customWidth="true" width="18.33203125"/>
+    <col min="58" max="58" customWidth="true" width="19.109375"/>
+    <col min="59" max="59" customWidth="true" width="7.21875"/>
+    <col min="60" max="60" customWidth="true" width="7.77734375"/>
+    <col min="61" max="61" customWidth="true" width="9.21875"/>
+    <col min="62" max="62" customWidth="true" width="10.109375"/>
+    <col min="63" max="63" customWidth="true" width="11.88671875"/>
+    <col min="64" max="64" customWidth="true" width="7.6640625"/>
+    <col min="65" max="65" customWidth="true" width="10.33203125"/>
+    <col min="66" max="66" customWidth="true" width="19.5546875"/>
+    <col min="67" max="67" customWidth="true" width="13.0"/>
+    <col min="68" max="68" customWidth="true" width="15.44140625"/>
+    <col min="69" max="69" customWidth="true" width="8.6640625"/>
+    <col min="70" max="70" customWidth="true" width="10.109375"/>
+    <col min="71" max="71" customWidth="true" width="9.21875"/>
+    <col min="72" max="72" customWidth="true" width="12.109375"/>
+    <col min="73" max="73" customWidth="true" width="7.21875"/>
+    <col min="74" max="74" customWidth="true" width="7.77734375"/>
+    <col min="75" max="75" customWidth="true" width="12.6640625"/>
+    <col min="76" max="76" customWidth="true" width="10.109375"/>
+    <col min="77" max="77" customWidth="true" width="11.88671875"/>
+    <col min="78" max="78" customWidth="true" width="7.6640625"/>
+    <col min="79" max="79" customWidth="true" width="10.33203125"/>
+    <col min="80" max="80" customWidth="true" width="18.88671875"/>
+    <col min="81" max="81" customWidth="true" width="13.0"/>
+    <col min="82" max="82" customWidth="true" width="15.5546875"/>
+    <col min="83" max="83" customWidth="true" width="8.6640625"/>
+    <col min="84" max="84" customWidth="true" width="11.0"/>
+    <col min="85" max="85" customWidth="true" width="9.21875"/>
+    <col min="86" max="86" customWidth="true" width="12.109375"/>
+    <col min="87" max="87" customWidth="true" width="13.5546875"/>
+    <col min="88" max="88" customWidth="true" width="10.109375"/>
+    <col min="89" max="89" customWidth="true" width="23.109375"/>
+    <col min="90" max="90" customWidth="true" width="9.6640625"/>
+    <col min="91" max="91" customWidth="true" width="12.33203125"/>
+    <col min="92" max="92" customWidth="true" width="10.33203125"/>
+    <col min="93" max="93" customWidth="true" width="11.109375"/>
+    <col min="94" max="94" customWidth="true" width="9.6640625"/>
+    <col min="95" max="95" customWidth="true" width="14.6640625"/>
+    <col min="96" max="96" customWidth="true" width="28.44140625"/>
+    <col min="97" max="97" customWidth="true" width="25.6640625"/>
+    <col min="98" max="98" customWidth="true" width="14.6640625"/>
+    <col min="99" max="99" customWidth="true" width="17.88671875"/>
+    <col min="100" max="109" customWidth="true" width="14.6640625"/>
+    <col min="110" max="110" customWidth="true" width="11.44140625"/>
+    <col min="111" max="112" customWidth="true" width="8.6640625"/>
+    <col min="113" max="113" customWidth="true" width="9.33203125"/>
+    <col min="114" max="114" customWidth="true" width="14.6640625"/>
+    <col min="115" max="115" customWidth="true" width="11.21875"/>
+    <col min="116" max="116" customWidth="true" width="10.109375"/>
+    <col min="117" max="118" customWidth="true" width="10.21875"/>
+    <col min="119" max="119" customWidth="true" width="9.6640625"/>
+    <col min="120" max="120" customWidth="true" width="11.21875"/>
+    <col min="121" max="121" customWidth="true" width="11.33203125"/>
+    <col min="122" max="122" customWidth="true" width="23.33203125"/>
+    <col min="123" max="123" customWidth="true" width="14.6640625"/>
+    <col min="124" max="124" customWidth="true" width="27.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:124" s="3" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
@@ -1875,10 +1906,10 @@
         <v>60</v>
       </c>
       <c r="CU2" s="16" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="CV2" s="16" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="CW2" s="16" t="s">
         <v>127</v>
@@ -1887,7 +1918,7 @@
         <v>181</v>
       </c>
       <c r="CY2" s="16" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="CZ2" s="16" t="s">
         <v>182</v>
